--- a/data/trans_orig/P36_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E4FAB7-38DD-45A0-A49E-0F964B89F71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9117227C-752A-4F7A-900A-FE41654051CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E4C355FD-4DE3-4B62-8C2E-021DA3ECEB19}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34C32B55-5813-4A37-A4A0-E65940FCBD12}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="255">
   <si>
     <t>Población según adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -71,658 +71,673 @@
     <t>50,5%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>47,08%</t>
   </si>
   <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>48,75%</t>
   </si>
   <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
   </si>
   <si>
     <t>50,68%</t>
   </si>
   <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>47,05%</t>
   </si>
   <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
   </si>
   <si>
     <t>54,99%</t>
   </si>
   <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>32,28%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>33,37%</t>
@@ -731,61 +746,58 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>37,15%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>56,24%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
   </si>
   <si>
     <t>53,58%</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>54,82%</t>
   </si>
   <si>
-    <t>51,88%</t>
-  </si>
-  <si>
     <t>56,42%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1200,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC972A0D-AD8C-435C-8971-8CBEFCDC910C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1EAAFE-4070-4DF3-A668-32907B0CC9AA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1871,10 +1883,10 @@
         <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,7 +1942,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5">
         <v>3</v>
@@ -1942,13 +1954,13 @@
         <v>133791</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>252</v>
@@ -1957,13 +1969,13 @@
         <v>191063</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>368</v>
@@ -1972,13 +1984,13 @@
         <v>324854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +2005,13 @@
         <v>109820</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -2008,13 +2020,13 @@
         <v>141384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -2023,13 +2035,13 @@
         <v>251204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,13 +2056,13 @@
         <v>8083</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2059,13 +2071,13 @@
         <v>16510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -2074,13 +2086,13 @@
         <v>24593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2148,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -2148,13 +2160,13 @@
         <v>63081</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -2163,13 +2175,13 @@
         <v>93057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>278</v>
@@ -2178,13 +2190,13 @@
         <v>156139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2211,13 @@
         <v>114780</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>274</v>
@@ -2214,13 +2226,13 @@
         <v>124970</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>438</v>
@@ -2229,13 +2241,13 @@
         <v>239750</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2262,13 @@
         <v>13128</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2265,13 +2277,13 @@
         <v>8386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -2280,13 +2292,13 @@
         <v>21515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,7 +2354,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
@@ -2354,13 +2366,13 @@
         <v>87623</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>105</v>
@@ -2369,13 +2381,13 @@
         <v>57359</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>225</v>
@@ -2384,13 +2396,13 @@
         <v>144981</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2417,13 @@
         <v>183358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>349</v>
@@ -2420,13 +2432,13 @@
         <v>214095</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>591</v>
@@ -2435,13 +2447,13 @@
         <v>397453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2468,13 @@
         <v>3516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2477,7 +2489,7 @@
         <v>29</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2486,13 +2498,13 @@
         <v>5044</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2560,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
@@ -2560,13 +2572,13 @@
         <v>277292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>449</v>
@@ -2575,13 +2587,13 @@
         <v>424909</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>728</v>
@@ -2590,13 +2602,13 @@
         <v>702201</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2623,13 @@
         <v>296120</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>443</v>
@@ -2626,13 +2638,13 @@
         <v>333392</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>715</v>
@@ -2641,13 +2653,13 @@
         <v>629512</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2674,13 @@
         <v>15943</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -2677,13 +2689,13 @@
         <v>16562</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -2692,13 +2704,13 @@
         <v>32504</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2766,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B32" s="5">
         <v>3</v>
@@ -2766,13 +2778,13 @@
         <v>86584</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
         <v>114</v>
@@ -2781,13 +2793,13 @@
         <v>96079</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
         <v>191</v>
@@ -2796,13 +2808,13 @@
         <v>182662</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2829,13 @@
         <v>483898</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H33" s="7">
         <v>556</v>
@@ -2832,13 +2844,13 @@
         <v>449239</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M33" s="7">
         <v>957</v>
@@ -2847,13 +2859,13 @@
         <v>933137</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2880,13 @@
         <v>271874</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>377</v>
@@ -2883,13 +2895,13 @@
         <v>309397</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>645</v>
@@ -2898,13 +2910,13 @@
         <v>581272</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2984,13 @@
         <v>993204</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H36" s="7">
         <v>1726</v>
@@ -2987,13 +2999,13 @@
         <v>1256032</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>2789</v>
@@ -3002,13 +3014,13 @@
         <v>2249236</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3035,13 @@
         <v>1771608</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>2814</v>
@@ -3038,13 +3050,13 @@
         <v>1923704</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>4565</v>
@@ -3053,13 +3065,13 @@
         <v>3695312</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3086,13 @@
         <v>385114</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>525</v>
@@ -3089,13 +3101,13 @@
         <v>410780</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>888</v>
@@ -3104,13 +3116,13 @@
         <v>795894</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3164,7 @@
         <v>8242</v>
       </c>
       <c r="N39" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>37</v>
@@ -3166,7 +3178,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9117227C-752A-4F7A-900A-FE41654051CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC687B55-16B5-49F7-82AE-5CDD448803B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34C32B55-5813-4A37-A4A0-E65940FCBD12}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A997DBFF-EDA7-4884-8322-8514CB1D455C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1EAAFE-4070-4DF3-A668-32907B0CC9AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4480B528-3CA2-4940-A73A-3795F80FF431}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
